--- a/biology/Botanique/FloraHolland/FloraHolland.xlsx
+++ b/biology/Botanique/FloraHolland/FloraHolland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 FloraHolland est une société coopérative néerlandaise de producteurs de fleurs et la plus importante des maisons de vente de fleurs aux enchères dans le monde. La société est implantée sur six sites : Aalsmeer, Naaldwijk, Rijnsburg, Venlo, Bleiswijk et Eelde.
